--- a/biology/Mycologie/Tremella_reticulata/Tremella_reticulata.xlsx
+++ b/biology/Mycologie/Tremella_reticulata/Tremella_reticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trémelle réticulée
-Tremella reticulata, la Trémelle réticulée, est une espèce de champignons de la famille des Tremellaceae. Ayant l'apparence blanchâtre et une texture gélatineuse et élastique, elle s'observe souvent sur le bois humide et pourri des arbres feuillus, comme les érables et les chênes, d'août à septembre[1].
+Tremella reticulata, la Trémelle réticulée, est une espèce de champignons de la famille des Tremellaceae. Ayant l'apparence blanchâtre et une texture gélatineuse et élastique, elle s'observe souvent sur le bois humide et pourri des arbres feuillus, comme les érables et les chênes, d'août à septembre.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se caractérise par la formation de sporophores blancs ou crème en rosettes de 3 à 20 cm de diamètre et de 4,5 à 12 cm de hauteur[2]. Sa sporée est blanche[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se caractérise par la formation de sporophores blancs ou crème en rosettes de 3 à 20 cm de diamètre et de 4,5 à 12 cm de hauteur. Sa sporée est blanche.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines sources[Lesquelles ?] indiquent que cette espèce est comestible, alors que d'autres affirment le contraire[1],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines sources[Lesquelles ?] indiquent que cette espèce est comestible, alors que d'autres affirment le contraire,.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Tremella reticulata (Berk.) Farl., 1908[5].
-L'espèce a été initialement classée dans le genre Tremella sous le basionyme Tremella sparassoidea Lloyd, 1919[5].
-Tremella reticulata a pour synonymes[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Tremella reticulata (Berk.) Farl., 1908.
+L'espèce a été initialement classée dans le genre Tremella sous le basionyme Tremella sparassoidea Lloyd, 1919.
+Tremella reticulata a pour synonymes :
 Corticium tremellinum var. reticulatum Berk., 1873
 Sebacina sparassoidea (Lloyd) P. Roberts, 2003
 Tremella incisa Lloyd, 1924
